--- a/fixture/test.xlsx
+++ b/fixture/test.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="161"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="161" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>foo</t>
   </si>
@@ -371,16 +372,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -388,7 +389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -396,7 +397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -404,7 +405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -428,4 +429,63 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>40909</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>